--- a/data/trans_camb/P12B1_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 38,3</t>
+          <t>-2,78; 3,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 41,2</t>
+          <t>-2,74; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 10,14</t>
+          <t>-3,53; 2,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 17,69</t>
+          <t>-1,22; 2,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 15,55</t>
+          <t>-0,17; 3,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 19,52</t>
+          <t>-0,29; 1,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 20,97</t>
+          <t>-0,77; 1,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 25,06</t>
+          <t>-0,17; 2,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 10,77</t>
+          <t>-1,98; 1,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 1,44</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 2,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,71</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 2,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 1,52</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 2,01</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-29,34%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75,5%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>129,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,47%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>129,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>-13,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>61,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>74,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>57,31%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,78; 934,01</t>
+          <t>-91,73; 1020,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,24; 1097,21</t>
+          <t>-93,46; 890,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 299,74</t>
+          <t>-80,1; 789,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 449,12</t>
+          <t>-46,78; 278,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 313,33</t>
+          <t>-35,51; 823,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 374,68</t>
+          <t>-33,21; 512,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 302,0</t>
+          <t>-63,83; 351,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,05; 338,83</t>
+          <t>-27,07; 668,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 165,27</t>
+          <t>-65,09; 98,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-50,16; 147,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-58,89; 316,69</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-73,29; 252,25</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-51,23; 324,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-41,23; 112,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-20,27; 208,39</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 20,89</t>
+          <t>-0,51; 1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 12,66</t>
+          <t>-0,73; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 22,44</t>
+          <t>-0,11; 2,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 13,3</t>
+          <t>-1,76; 1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 6,13</t>
+          <t>-0,75; 2,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 17,52</t>
+          <t>-0,59; 1,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 13,61</t>
+          <t>-0,89; 0,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 6,62</t>
+          <t>0,67; 4,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 12,64</t>
+          <t>-4,09; -0,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 1,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 1,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 0,61</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,73</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; -0,02</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 1,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>120,77%</t>
+          <t>111,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>202,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>-27,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>143,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>51,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>392,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>-80,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-39,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>77,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>308,97%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-62,7%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1265,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,8; —</t>
+          <t>-87,78; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,12 +1275,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,5; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,65; —</t>
+          <t>-100,0; 369,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1295,47 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 520,04</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,69; 360,8</t>
+          <t>6,58; 1961,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 582,86</t>
+          <t>-100,0; 60,55</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-49,34; 435,45</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-70,62; 280,13</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>58,69; 1267,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-91,82; 23,56</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,97</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>12,58</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,17 +1435,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,71</t>
+          <t>0,0; 20,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,88</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1147,15 +1465,45 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,07</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,67</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1180,35 +1528,65 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 27,58</t>
+          <t>-0,61; 2,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 24,12</t>
+          <t>-1,14; 1,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 11,21</t>
+          <t>0,04; 5,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 11,91</t>
+          <t>-3,11; 1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,44</t>
+          <t>-0,17; 2,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 16,26</t>
+          <t>-0,19; 1,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 16,44</t>
+          <t>-0,44; 0,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 12,84</t>
+          <t>0,56; 2,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 11,31</t>
+          <t>-1,88; 0,39</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 0,95</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 1,65</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 1,04</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,97</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 0,65</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>124,66%</t>
+          <t>113,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>171,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>-10,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>130,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>115,91%</t>
+          <t>77,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>101,4%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>232,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>-32,67%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>97,97%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>197,83%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-20,55%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>52,25%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,07; 683,32</t>
+          <t>-68,03; 671,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,75; 521,5</t>
+          <t>-78,22; 484,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,22; 330,78</t>
+          <t>-50,6; 1000,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 328,0</t>
+          <t>-73,96; 107,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 207,07</t>
+          <t>-35,05; 548,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 466,98</t>
+          <t>-25,34; 363,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 314,31</t>
+          <t>-52,51; 253,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 208,88</t>
+          <t>47,53; 701,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 213,49</t>
+          <t>-66,77; 28,05</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-55,18; 106,8</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-36,03; 317,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-60,15; 190,65</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8,45; 536,9</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-58,73; 45,43</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-17,26; 194,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
